--- a/files/GuestListG2G.xlsx
+++ b/files/GuestListG2G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dekelkartel/Desktop/Get2Gether/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8894A935-4C58-DE48-920C-8CBE82E80E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB813566-FBDA-3A47-B417-6B2B771DF056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="16080" xr2:uid="{4B9EC5CA-A70D-9A41-B001-99AEC82FB341}"/>
+    <workbookView xWindow="28800" yWindow="-6460" windowWidth="38400" windowHeight="19580" xr2:uid="{4B9EC5CA-A70D-9A41-B001-99AEC82FB341}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>*שם המוזמן (חובה)</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">כמה יגיעו? </t>
   </si>
   <si>
-    <t>מהצד של...</t>
-  </si>
-  <si>
     <t>סטטוס הגעה (יגיע, מתלבט, לא יגיע)</t>
   </si>
   <si>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>חברים / משפחה</t>
+  </si>
+  <si>
+    <t>הערה - אם מוסיפים עמודות למחוק לפני ההעלאה למערכת</t>
+  </si>
+  <si>
+    <t>מהצד של... חתן/כלה</t>
   </si>
 </sst>
 </file>
@@ -81,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,8 +97,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -153,11 +162,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +185,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -508,25 +532,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26B6B62-1104-A346-A2C1-A3BF2083A0A6}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+    <row r="1" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,13 +564,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
